--- a/lista_mercado.xlsx
+++ b/lista_mercado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esped\Meus_projetos\app_mercado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C727853-CF50-4FB6-B56C-55219CEA3F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9D1FA-FCB6-490C-B77A-10E4E91B0E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C40D9466-9BCF-4639-8C47-F6C3AB673443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C40D9466-9BCF-4639-8C47-F6C3AB673443}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Marcarão</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Arroz</t>
   </si>
   <si>
     <t>Produto</t>
+  </si>
+  <si>
+    <t>Camarrão</t>
+  </si>
+  <si>
+    <t>Vinho</t>
+  </si>
+  <si>
+    <t>Papel toalha</t>
+  </si>
+  <si>
+    <t>Feijão</t>
+  </si>
+  <si>
+    <t>Açucar</t>
+  </si>
+  <si>
+    <t>Arroz japones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leite </t>
+  </si>
+  <si>
+    <t>Papel Higiênico</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Frango</t>
+  </si>
+  <si>
+    <t>Carne Patinho</t>
+  </si>
+  <si>
+    <t>Manteiga</t>
+  </si>
+  <si>
+    <t>champinhão</t>
+  </si>
+  <si>
+    <t>Creme de leite</t>
+  </si>
+  <si>
+    <t>Rap 10</t>
+  </si>
+  <si>
+    <t>Produto de Limpeza</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Vanish</t>
+  </si>
+  <si>
+    <t>Downey</t>
+  </si>
+  <si>
+    <t>Detergente</t>
+  </si>
+  <si>
+    <t>Bucha de lavar roupa</t>
+  </si>
+  <si>
+    <t>Saco de lixo</t>
+  </si>
+  <si>
+    <t>Batata inglesa</t>
+  </si>
+  <si>
+    <t>Leite em pó</t>
+  </si>
+  <si>
+    <t>Gelatina Zero</t>
+  </si>
+  <si>
+    <t>Creme de ricota</t>
+  </si>
+  <si>
+    <t>Peixe</t>
+  </si>
+  <si>
+    <t>Desodorante</t>
+  </si>
+  <si>
+    <t>Cotonete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -80,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,28 +509,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EC5F56-1B4D-4317-874E-75B5C42317CB}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>